--- a/Data/STRESS META ANALYSIS.xlsx
+++ b/Data/STRESS META ANALYSIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\Systematic_Review\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDD763D-E2BD-4B79-BFF3-EEBD98260AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEE7C03-0D8D-4F18-AB60-5322C7CAA9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{C5DF44CF-7E18-40B8-9FAA-34AEB3FCB71F}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{C5DF44CF-7E18-40B8-9FAA-34AEB3FCB71F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Study_Author_Year</t>
   </si>
@@ -135,6 +157,33 @@
   </si>
   <si>
     <t>mean_diff</t>
+  </si>
+  <si>
+    <t>Lei et al. (2021)</t>
+  </si>
+  <si>
+    <t>A quantitative study for indoor workplace biophilic design to improve health and productivity performance</t>
+  </si>
+  <si>
+    <t>Perceived Restorativeness Scale (PRS)</t>
+  </si>
+  <si>
+    <t>Repeated-measures experimental study</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>0.2% coverage vs. Baseline</t>
+  </si>
+  <si>
+    <t>5% coverage vs. Baseline</t>
+  </si>
+  <si>
+    <t>12% coverage vs. Baseline</t>
+  </si>
+  <si>
+    <t>20% coverage vs. Baseline</t>
   </si>
 </sst>
 </file>
@@ -176,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -185,10 +234,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -207,6 +252,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>13</v>
+    <v>7</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467013BB-E792-4E3C-94E0-9D22DDFE4048}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +644,7 @@
     <col min="5" max="5" width="21.90625" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" customWidth="1"/>
     <col min="7" max="8" width="17.26953125" customWidth="1"/>
-    <col min="9" max="9" width="16" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="15" width="17.26953125" customWidth="1"/>
     <col min="19" max="19" width="19.90625" customWidth="1"/>
   </cols>
@@ -571,7 +674,7 @@
       <c r="H1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -618,7 +721,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
@@ -631,7 +734,7 @@
         <f>(I2 - J2 ) / M2</f>
         <v>1.0202117283671501</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2">
         <v>12.13</v>
       </c>
       <c r="J2">
@@ -679,7 +782,7 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
@@ -695,6 +798,10 @@
       <c r="H3">
         <v>7.16</v>
       </c>
+      <c r="L3" t="e" vm="1">
+        <f>_xleta.STDEV</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="O3">
         <v>0.57999999999999996</v>
       </c>
@@ -717,7 +824,87 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5">
+        <v>15</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
